--- a/02_設計/01_画面レイアウト/画面レイアウト_SO-001.xlsx
+++ b/02_設計/01_画面レイアウト/画面レイアウト_SO-001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0101\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisim\OneDrive\Documents\GitHub\scheduleOnline\02_設計\01_画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -368,33 +368,6 @@
   </si>
   <si>
     <t>テキストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンボボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェックボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラジオボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>罫線</t>
-    <rPh sb="0" eb="2">
-      <t>ケイセン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -711,6 +684,37 @@
       <t>ハラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク用ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク用ラベル</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1149,18 +1153,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,9 +1201,17 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1280,7 +1287,7 @@
         <xdr:cNvPr id="11" name="直線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1342,7 @@
         <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1397,7 @@
         <xdr:cNvPr id="13" name="直線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1452,7 @@
         <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1507,7 @@
         <xdr:cNvPr id="21" name="テキスト ボックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3610F2FA-2F8E-407C-B26C-E46A7AC7C45A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3610F2FA-2F8E-407C-B26C-E46A7AC7C45A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1575,7 @@
         <xdr:cNvPr id="22" name="テキスト ボックス 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75FA8E75-CEB7-45FA-89F9-5DDDDBEA5B33}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FA8E75-CEB7-45FA-89F9-5DDDDBEA5B33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1643,7 @@
         <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBF242FE-7D3C-49DD-A3B7-35A89E8AC433}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF242FE-7D3C-49DD-A3B7-35A89E8AC433}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,7 +1711,7 @@
         <xdr:cNvPr id="24" name="テキスト ボックス 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBF242FE-7D3C-49DD-A3B7-35A89E8AC433}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF242FE-7D3C-49DD-A3B7-35A89E8AC433}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1777,7 +1784,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75FA8E75-CEB7-45FA-89F9-5DDDDBEA5B33}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FA8E75-CEB7-45FA-89F9-5DDDDBEA5B33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1852,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3610F2FA-2F8E-407C-B26C-E46A7AC7C45A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3610F2FA-2F8E-407C-B26C-E46A7AC7C45A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1920,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBF242FE-7D3C-49DD-A3B7-35A89E8AC433}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF242FE-7D3C-49DD-A3B7-35A89E8AC433}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,7 +1988,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77EB129D-E70D-4EE3-87D1-055208BEBFC6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EB129D-E70D-4EE3-87D1-055208BEBFC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2054,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C184C65-B41A-40E4-A109-9CD16357ABA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C184C65-B41A-40E4-A109-9CD16357ABA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2120,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9253CC8D-16F8-45E8-9991-F8E471EE6AEF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9253CC8D-16F8-45E8-9991-F8E471EE6AEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2186,7 @@
         <xdr:cNvPr id="9" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2244,7 @@
         <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07003EE5-81CC-4AC1-8131-E621921C7ECD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07003EE5-81CC-4AC1-8131-E621921C7ECD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2302,7 @@
         <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE12DF96-B670-48F6-BF54-260469FE94CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE12DF96-B670-48F6-BF54-260469FE94CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -3290,6 +3297,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
     <mergeCell ref="B35:L35"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
@@ -3302,102 +3405,6 @@
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3412,8 +3419,8 @@
   </sheetPr>
   <dimension ref="A1:AQ58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1:AQ1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
@@ -3440,7 +3447,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
       <c r="Q1" s="27" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R1" s="27"/>
       <c r="S1" s="27"/>
@@ -3455,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="AB1" s="27"/>
-      <c r="AC1" s="56">
+      <c r="AC1" s="37">
         <v>44408</v>
       </c>
       <c r="AD1" s="27"/>
@@ -3468,7 +3475,7 @@
       </c>
       <c r="AJ1" s="27"/>
       <c r="AK1" s="27" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AL1" s="27"/>
       <c r="AM1" s="27"/>
@@ -3497,7 +3504,7 @@
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
       <c r="Q2" s="29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="R2" s="29"/>
       <c r="S2" s="29"/>
@@ -3543,41 +3550,41 @@
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="39"/>
     </row>
     <row r="4" spans="1:43" ht="19.5" thickTop="1"/>
     <row r="5" spans="1:43">
@@ -5531,36 +5538,36 @@
     </row>
     <row r="48" spans="1:43">
       <c r="A48" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
-      <c r="K48" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
+      <c r="K48" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="59"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
       <c r="U48" s="22"/>
       <c r="V48" s="22"/>
       <c r="W48" s="22"/>
       <c r="X48" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y48" s="22"/>
       <c r="Z48" s="22"/>
@@ -5584,36 +5591,36 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
-      <c r="K49" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
+      <c r="K49" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="59"/>
       <c r="S49" s="22"/>
       <c r="T49" s="22"/>
       <c r="U49" s="22"/>
       <c r="V49" s="22"/>
       <c r="W49" s="22"/>
       <c r="X49" s="22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Y49" s="22"/>
       <c r="Z49" s="22"/>
@@ -5637,34 +5644,34 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="59"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
       <c r="U50" s="22"/>
       <c r="V50" s="22"/>
       <c r="W50" s="22"/>
       <c r="X50" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Y50" s="22"/>
       <c r="Z50" s="22"/>
@@ -5688,36 +5695,36 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
-      <c r="K51" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
+      <c r="K51" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="59"/>
       <c r="S51" s="22"/>
       <c r="T51" s="22"/>
       <c r="U51" s="22"/>
       <c r="V51" s="22"/>
       <c r="W51" s="22"/>
       <c r="X51" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Y51" s="22"/>
       <c r="Z51" s="22"/>
@@ -5833,7 +5840,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5880,7 +5887,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -5927,7 +5934,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -5974,7 +5981,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -6066,6 +6073,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A53:AQ53"/>
+    <mergeCell ref="A46:AQ46"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="K51:R51"/>
+    <mergeCell ref="S51:W51"/>
+    <mergeCell ref="X51:AQ51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="K52:R52"/>
+    <mergeCell ref="S52:W52"/>
+    <mergeCell ref="X52:AQ52"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="K49:R49"/>
+    <mergeCell ref="S49:W49"/>
+    <mergeCell ref="X49:AQ49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="K50:R50"/>
+    <mergeCell ref="S50:W50"/>
+    <mergeCell ref="X50:AQ50"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="K47:R47"/>
+    <mergeCell ref="S47:W47"/>
+    <mergeCell ref="X47:AQ47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="S48:W48"/>
+    <mergeCell ref="X48:AQ48"/>
     <mergeCell ref="A5:AQ5"/>
     <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="M2:P2"/>
@@ -6082,38 +6121,6 @@
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:AQ3"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="S48:W48"/>
-    <mergeCell ref="X48:AQ48"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="K47:R47"/>
-    <mergeCell ref="S47:W47"/>
-    <mergeCell ref="X47:AQ47"/>
-    <mergeCell ref="X49:AQ49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="K50:R50"/>
-    <mergeCell ref="S50:W50"/>
-    <mergeCell ref="X50:AQ50"/>
-    <mergeCell ref="A53:AQ53"/>
-    <mergeCell ref="A46:AQ46"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="K51:R51"/>
-    <mergeCell ref="S51:W51"/>
-    <mergeCell ref="X51:AQ51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="K52:R52"/>
-    <mergeCell ref="S52:W52"/>
-    <mergeCell ref="X52:AQ52"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="K49:R49"/>
-    <mergeCell ref="S49:W49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6122,12 +6129,18 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>K48:R52</xm:sqref>
+          <xm:sqref>K51:R52 K48:R49</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K50:R50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6144,7 +6157,7 @@
   <dimension ref="A1:AQ58"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
@@ -6171,7 +6184,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
       <c r="Q1" s="27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R1" s="27"/>
       <c r="S1" s="27"/>
@@ -6186,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="AB1" s="27"/>
-      <c r="AC1" s="39">
+      <c r="AC1" s="53">
         <v>44365</v>
       </c>
       <c r="AD1" s="27"/>
@@ -6199,7 +6212,7 @@
       </c>
       <c r="AJ1" s="27"/>
       <c r="AK1" s="27" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL1" s="27"/>
       <c r="AM1" s="27"/>
@@ -6228,7 +6241,7 @@
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
       <c r="Q2" s="29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R2" s="29"/>
       <c r="S2" s="29"/>
@@ -6243,7 +6256,7 @@
         <v>2</v>
       </c>
       <c r="AB2" s="29"/>
-      <c r="AC2" s="42">
+      <c r="AC2" s="56">
         <v>44365</v>
       </c>
       <c r="AD2" s="29"/>
@@ -6256,7 +6269,7 @@
       </c>
       <c r="AJ2" s="29"/>
       <c r="AK2" s="29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL2" s="29"/>
       <c r="AM2" s="29"/>
@@ -6278,41 +6291,41 @@
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
       <c r="L3" s="36"/>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="55"/>
     </row>
     <row r="4" spans="1:43" ht="19.5" thickTop="1"/>
     <row r="5" spans="1:43">
@@ -6781,14 +6794,14 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
-      <c r="S15" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
+      <c r="S15" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
       <c r="Y15" s="17"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="17"/>
@@ -6827,12 +6840,12 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
       <c r="Y16" s="17"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="17"/>
@@ -6871,12 +6884,12 @@
       <c r="P17" s="17"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="17"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="17"/>
@@ -6915,12 +6928,12 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="17"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
       <c r="Y18" s="17"/>
       <c r="Z18" s="18"/>
       <c r="AA18" s="17"/>
@@ -7089,18 +7102,18 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
-      <c r="Q22" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="45"/>
+      <c r="Q22" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="42"/>
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
@@ -7135,16 +7148,16 @@
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="48"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="45"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
@@ -7179,18 +7192,18 @@
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
-      <c r="Q24" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="45"/>
+      <c r="Q24" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="42"/>
       <c r="AA24" s="17"/>
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
@@ -7225,16 +7238,16 @@
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="48"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="45"/>
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
@@ -7313,18 +7326,18 @@
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="51"/>
+      <c r="Q27" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="48"/>
       <c r="AA27" s="17"/>
       <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
@@ -7359,16 +7372,16 @@
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="54"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="51"/>
       <c r="AA28" s="17"/>
       <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
@@ -8248,13 +8261,13 @@
     </row>
     <row r="48" spans="1:43">
       <c r="A48" s="22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -8279,7 +8292,7 @@
       <c r="V48" s="22"/>
       <c r="W48" s="22"/>
       <c r="X48" s="22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Y48" s="22"/>
       <c r="Z48" s="22"/>
@@ -8303,13 +8316,13 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
@@ -8334,7 +8347,7 @@
       <c r="V49" s="22"/>
       <c r="W49" s="22"/>
       <c r="X49" s="22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Y49" s="22"/>
       <c r="Z49" s="22"/>
@@ -8358,13 +8371,13 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
@@ -8372,7 +8385,7 @@
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
@@ -8387,7 +8400,7 @@
       <c r="V50" s="22"/>
       <c r="W50" s="22"/>
       <c r="X50" s="22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Y50" s="22"/>
       <c r="Z50" s="22"/>
@@ -8548,7 +8561,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -8595,7 +8608,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -8642,7 +8655,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -8779,16 +8792,32 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="K49:R49"/>
-    <mergeCell ref="S49:W49"/>
-    <mergeCell ref="X49:AQ49"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="S48:W48"/>
-    <mergeCell ref="X48:AQ48"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:AQ3"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="A5:AQ5"/>
+    <mergeCell ref="A46:AQ46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="K47:R47"/>
+    <mergeCell ref="S47:W47"/>
+    <mergeCell ref="X47:AQ47"/>
+    <mergeCell ref="Q22:Z23"/>
+    <mergeCell ref="Q24:Z25"/>
+    <mergeCell ref="Q27:Z28"/>
+    <mergeCell ref="S15:X18"/>
     <mergeCell ref="A53:AQ53"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="E50:J50"/>
@@ -8805,32 +8834,16 @@
     <mergeCell ref="K52:R52"/>
     <mergeCell ref="S52:W52"/>
     <mergeCell ref="X52:AQ52"/>
-    <mergeCell ref="A5:AQ5"/>
-    <mergeCell ref="A46:AQ46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="K47:R47"/>
-    <mergeCell ref="S47:W47"/>
-    <mergeCell ref="X47:AQ47"/>
-    <mergeCell ref="Q22:Z23"/>
-    <mergeCell ref="Q24:Z25"/>
-    <mergeCell ref="Q27:Z28"/>
-    <mergeCell ref="S15:X18"/>
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:AQ3"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="S48:W48"/>
+    <mergeCell ref="X48:AQ48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="K49:R49"/>
+    <mergeCell ref="S49:W49"/>
+    <mergeCell ref="X49:AQ49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8856,9 +8869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -8869,47 +8880,47 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
